--- a/biology/Zoologie/Crocodile_de_Morelet/Crocodile_de_Morelet.xlsx
+++ b/biology/Zoologie/Crocodile_de_Morelet/Crocodile_de_Morelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocodylus moreletii
-Crocodylus moreletii, le Crocodile de Morelet ou Crocodile d'Amérique centrale, est une espèce de crocodiliens de la famille des Crocodylidae[1].
+Crocodylus moreletii, le Crocodile de Morelet ou Crocodile d'Amérique centrale, est une espèce de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ne dépasse pas les trois mètres.
 La femelle pond de 20 à 45 œufs par couvée.
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Belize, au Guatemala et au Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Belize, au Guatemala et au Mexique.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Biologie et mœurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre dans les eaux douces, y compris des marais et des forêts inondés.
 </t>
@@ -606,7 +624,9 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les populations actuelles sont estimées à 10 000 ou 20 000 individus. La grande qualité de sa peau a induit une surchasse très dommageable. Mais aujourd'hui, la survie de l'espèce est davantage menacée par l'accélération de la destruction des habitats imputable à la progression des activités humaines que par la chasse illicite.
 </t>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce commémore le naturaliste français Pierre Marie Arthur Morelet (1809-1892) qui avait découvert cette espèce au Mexique en 1850.
 </t>
